--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il12b-Il23r.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il12b-Il23r.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
   </si>
   <si>
@@ -85,7 +88,7 @@
     <t>Il23r</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>MuSCs</t>
   </si>
 </sst>
 </file>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T2"/>
+  <dimension ref="A1:T3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,31 +519,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>0.04992833333333333</v>
+        <v>1.284858666666667</v>
       </c>
       <c r="H2">
-        <v>0.149785</v>
+        <v>3.854576</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -549,10 +552,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.02016266666666667</v>
+        <v>0.04298466666666667</v>
       </c>
       <c r="N2">
-        <v>0.060488</v>
+        <v>0.128954</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -561,16 +564,78 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.001006688342222222</v>
+        <v>0.05522922150044446</v>
       </c>
       <c r="R2">
-        <v>0.00906019508</v>
+        <v>0.4970629935040001</v>
       </c>
       <c r="S2">
-        <v>1</v>
+        <v>0.6825120125588942</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>0.6825120125588942</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3">
+        <v>0.597685</v>
+      </c>
+      <c r="H3">
+        <v>1.793055</v>
+      </c>
+      <c r="I3">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="J3">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M3">
+        <v>0.04298466666666667</v>
+      </c>
+      <c r="N3">
+        <v>0.128954</v>
+      </c>
+      <c r="O3">
+        <v>1</v>
+      </c>
+      <c r="P3">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>0.02569129049666667</v>
+      </c>
+      <c r="R3">
+        <v>0.23122161447</v>
+      </c>
+      <c r="S3">
+        <v>0.3174879874411058</v>
+      </c>
+      <c r="T3">
+        <v>0.3174879874411058</v>
       </c>
     </row>
   </sheetData>
